--- a/Configs/Datas/EffectData.xlsx
+++ b/Configs/Datas/EffectData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>##var</t>
   </si>
@@ -64,10 +64,25 @@
     <t>HealthChangeEffect</t>
   </si>
   <si>
+    <t>DestroyEffect</t>
+  </si>
+  <si>
     <t>TrackEffect</t>
   </si>
   <si>
-    <t>SpeedChangeEffect</t>
+    <t>CreateAoeAreaEffect</t>
+  </si>
+  <si>
+    <t>碰撞时产生虚拟aoe</t>
+  </si>
+  <si>
+    <t>AOEEffect</t>
+  </si>
+  <si>
+    <t>DirChangeEffect</t>
+  </si>
+  <si>
+    <t>虚拟aoe</t>
   </si>
 </sst>
 </file>
@@ -1001,18 +1016,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
     <col min="4" max="5" width="20" customWidth="1"/>
     <col min="6" max="7" width="10.625" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
     <col min="9" max="9" width="22.75" customWidth="1"/>
     <col min="10" max="10" width="21.125" customWidth="1"/>
     <col min="11" max="11" width="11.375" customWidth="1"/>
@@ -1088,39 +1103,99 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
-      <c r="B8">
+    <row r="7" spans="3:4">
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9">
         <v>2002</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="3:4">
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="3:4">
       <c r="C10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="3:4">
+    <row r="11" spans="3:5">
       <c r="C11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11">
+        <v>2004</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14">
+        <v>2003</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14">
         <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>21011</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4">
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18">
+        <v>2004</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>120</v>
+      </c>
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>21012</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/Datas/EffectData.xlsx
+++ b/Configs/Datas/EffectData.xlsx
@@ -1019,7 +1019,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1100,7 +1100,7 @@
         <v>10</v>
       </c>
       <c r="D6">
-        <v>70</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="3:4">

--- a/Configs/Datas/EffectData.xlsx
+++ b/Configs/Datas/EffectData.xlsx
@@ -1019,7 +1019,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1100,7 +1100,7 @@
         <v>10</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="3:4">
@@ -1127,7 +1127,7 @@
         <v>12</v>
       </c>
       <c r="D10">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="3:5">
@@ -1157,7 +1157,7 @@
         <v>10</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="3:4">
@@ -1184,7 +1184,7 @@
         <v>10</v>
       </c>
       <c r="D18">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="E18" t="s">
         <v>17</v>

--- a/Configs/Datas/EffectData.xlsx
+++ b/Configs/Datas/EffectData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12525"/>
+    <workbookView windowWidth="16810" windowHeight="7230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>##var</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>虚拟aoe</t>
+  </si>
+  <si>
+    <t>治疗</t>
   </si>
 </sst>
 </file>
@@ -1016,21 +1019,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="3" max="3" width="23.5" customWidth="1"/>
     <col min="4" max="5" width="20" customWidth="1"/>
-    <col min="6" max="7" width="10.625" customWidth="1"/>
+    <col min="6" max="7" width="10.6272727272727" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="9" max="9" width="22.75" customWidth="1"/>
-    <col min="10" max="10" width="21.125" customWidth="1"/>
-    <col min="11" max="11" width="11.375" customWidth="1"/>
+    <col min="9" max="9" width="22.7545454545455" customWidth="1"/>
+    <col min="10" max="10" width="21.1272727272727" customWidth="1"/>
+    <col min="11" max="11" width="11.3727272727273" customWidth="1"/>
     <col min="12" max="12" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1196,6 +1199,28 @@
       </c>
       <c r="D19">
         <v>21012</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21">
+        <v>2011</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>-50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1214,7 +1239,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1231,7 +1256,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/Datas/EffectData.xlsx
+++ b/Configs/Datas/EffectData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>##var</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>碰撞时产生虚拟aoe</t>
+  </si>
+  <si>
+    <t>CanDestroyTargetEffect</t>
+  </si>
+  <si>
+    <t>destroycondition</t>
   </si>
   <si>
     <t>AOEEffect</t>
@@ -1019,10 +1025,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:D22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1152,74 +1158,85 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
-      <c r="B14">
+    <row r="13" spans="3:5">
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>1001</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15">
         <v>2003</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>10</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4">
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15">
-        <v>21011</v>
       </c>
     </row>
     <row r="16" spans="3:4">
       <c r="C16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D16">
+        <v>21011</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
-      <c r="B18">
+    <row r="19" spans="2:5">
+      <c r="B19">
         <v>2004</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>10</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>150</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="3:4">
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19">
+      <c r="D20">
         <v>21012</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
-      <c r="B21">
+    <row r="22" spans="2:5">
+      <c r="B22">
         <v>2011</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>10</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>-50</v>
       </c>
-      <c r="E21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4">
-      <c r="C22" t="s">
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23" t="s">
         <v>11</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>0</v>
       </c>
     </row>

--- a/Configs/Datas/EffectData.xlsx
+++ b/Configs/Datas/EffectData.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16810" windowHeight="7230"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>##var</t>
   </si>
@@ -76,12 +76,6 @@
     <t>碰撞时产生虚拟aoe</t>
   </si>
   <si>
-    <t>CanDestroyTargetEffect</t>
-  </si>
-  <si>
-    <t>destroycondition</t>
-  </si>
-  <si>
     <t>AOEEffect</t>
   </si>
   <si>
@@ -89,9 +83,6 @@
   </si>
   <si>
     <t>虚拟aoe</t>
-  </si>
-  <si>
-    <t>治疗</t>
   </si>
 </sst>
 </file>
@@ -711,7 +702,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1025,25 +1016,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="23.4416666666667" customWidth="1"/>
     <col min="4" max="5" width="20" customWidth="1"/>
-    <col min="6" max="7" width="10.6272727272727" customWidth="1"/>
+    <col min="6" max="7" width="10.6666666666667" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="9" max="9" width="22.7545454545455" customWidth="1"/>
-    <col min="10" max="10" width="21.1272727272727" customWidth="1"/>
-    <col min="11" max="11" width="11.3727272727273" customWidth="1"/>
-    <col min="12" max="12" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="22.775" customWidth="1"/>
+    <col min="10" max="10" width="21.1083333333333" customWidth="1"/>
+    <col min="11" max="11" width="11.3333333333333" customWidth="1"/>
+    <col min="12" max="12" width="13.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1056,10 +1047,8 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1072,26 +1061,22 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
+      <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
     </row>
     <row r="5" spans="2:4">
       <c r="B5">
@@ -1109,7 +1094,7 @@
         <v>10</v>
       </c>
       <c r="D6">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="3:4">
@@ -1158,78 +1143,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="C13" t="s">
+    <row r="14" spans="2:4">
+      <c r="B14">
+        <v>2003</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="C15" t="s">
         <v>15</v>
       </c>
-      <c r="D13">
-        <v>1001</v>
-      </c>
-      <c r="E13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15">
-        <v>2003</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
       <c r="D15">
-        <v>50</v>
+        <v>21011</v>
       </c>
     </row>
     <row r="16" spans="3:4">
       <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18">
+        <v>2004</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>150</v>
+      </c>
+      <c r="E18" t="s">
         <v>17</v>
       </c>
-      <c r="D16">
-        <v>21011</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4">
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17">
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>21012</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21">
+        <v>2005</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22">
         <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19">
-        <v>2004</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19">
-        <v>150</v>
-      </c>
-      <c r="E19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4">
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20">
-        <v>21012</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22">
-        <v>2011</v>
-      </c>
-      <c r="C22" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22">
-        <v>-50</v>
-      </c>
-      <c r="E22" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="23" spans="3:4">
@@ -1256,7 +1235,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1273,7 +1252,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/Datas/EffectData.xlsx
+++ b/Configs/Datas/EffectData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="24750" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>##var</t>
   </si>
@@ -1016,22 +1016,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="3" width="23.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="23.4454545454545" customWidth="1"/>
     <col min="4" max="5" width="20" customWidth="1"/>
-    <col min="6" max="7" width="10.6666666666667" customWidth="1"/>
+    <col min="6" max="7" width="10.6636363636364" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="9" max="9" width="22.775" customWidth="1"/>
-    <col min="10" max="10" width="21.1083333333333" customWidth="1"/>
-    <col min="11" max="11" width="11.3333333333333" customWidth="1"/>
-    <col min="12" max="12" width="13.4416666666667" customWidth="1"/>
+    <col min="9" max="9" width="22.7727272727273" customWidth="1"/>
+    <col min="10" max="10" width="21.1090909090909" customWidth="1"/>
+    <col min="11" max="11" width="11.3363636363636" customWidth="1"/>
+    <col min="12" max="12" width="13.4454545454545" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1217,6 +1217,41 @@
       </c>
       <c r="D23">
         <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25">
+        <v>2006</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4">
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27">
+        <v>21013</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4">
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1235,7 +1270,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1252,7 +1287,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/Datas/EffectData.xlsx
+++ b/Configs/Datas/EffectData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
   <si>
     <t>##var</t>
   </si>
@@ -1016,10 +1016,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1252,6 +1252,25 @@
       </c>
       <c r="D28">
         <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30">
+        <v>2007</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31">
+        <v>21014</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/Datas/EffectData.xlsx
+++ b/Configs/Datas/EffectData.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10480"/>
+    <workbookView windowWidth="27945" windowHeight="13515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1018,20 +1018,20 @@
   <sheetPr/>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="3" width="23.4454545454545" customWidth="1"/>
+    <col min="3" max="3" width="23.4416666666667" customWidth="1"/>
     <col min="4" max="5" width="20" customWidth="1"/>
-    <col min="6" max="7" width="10.6636363636364" customWidth="1"/>
+    <col min="6" max="7" width="10.6666666666667" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="9" max="9" width="22.7727272727273" customWidth="1"/>
-    <col min="10" max="10" width="21.1090909090909" customWidth="1"/>
-    <col min="11" max="11" width="11.3363636363636" customWidth="1"/>
-    <col min="12" max="12" width="13.4454545454545" customWidth="1"/>
+    <col min="9" max="9" width="22.775" customWidth="1"/>
+    <col min="10" max="10" width="21.1083333333333" customWidth="1"/>
+    <col min="11" max="11" width="11.3333333333333" customWidth="1"/>
+    <col min="12" max="12" width="13.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1289,7 +1289,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1306,7 +1306,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/Datas/EffectData.xlsx
+++ b/Configs/Datas/EffectData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13515"/>
+    <workbookView windowWidth="24045" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
   <si>
     <t>##var</t>
   </si>
@@ -1016,10 +1016,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1094,7 +1094,7 @@
         <v>10</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="3:4">
@@ -1271,6 +1271,60 @@
       </c>
       <c r="D31">
         <v>21014</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33">
+        <v>1101</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37">
+        <v>1102</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4">
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/Datas/EffectData.xlsx
+++ b/Configs/Datas/EffectData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13515"/>
+    <workbookView windowWidth="13770" windowHeight="9080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
   <si>
     <t>##var</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>碰撞时产生虚拟aoe</t>
+  </si>
+  <si>
+    <t>CanDestroyTargetEffect</t>
   </si>
   <si>
     <t>AOEEffect</t>
@@ -1016,22 +1019,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="3" width="23.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="23.4454545454545" customWidth="1"/>
     <col min="4" max="5" width="20" customWidth="1"/>
-    <col min="6" max="7" width="10.6666666666667" customWidth="1"/>
+    <col min="6" max="7" width="10.6636363636364" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="9" max="9" width="22.775" customWidth="1"/>
-    <col min="10" max="10" width="21.1083333333333" customWidth="1"/>
-    <col min="11" max="11" width="11.3333333333333" customWidth="1"/>
-    <col min="12" max="12" width="13.4416666666667" customWidth="1"/>
+    <col min="9" max="9" width="22.7727272727273" customWidth="1"/>
+    <col min="10" max="10" width="21.1090909090909" customWidth="1"/>
+    <col min="11" max="11" width="11.3363636363636" customWidth="1"/>
+    <col min="12" max="12" width="13.4454545454545" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1094,7 +1097,7 @@
         <v>10</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="3:4">
@@ -1143,23 +1146,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
-      <c r="B14">
+    <row r="13" spans="3:4">
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15">
         <v>2003</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>10</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4">
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15">
-        <v>21011</v>
       </c>
     </row>
     <row r="16" spans="3:4">
@@ -1167,110 +1170,172 @@
         <v>16</v>
       </c>
       <c r="D16">
+        <v>21011</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
-      <c r="B18">
+    <row r="19" spans="2:5">
+      <c r="B19">
         <v>2004</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>10</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>150</v>
       </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19">
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20">
         <v>21012</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
-      <c r="B21">
+    <row r="22" spans="2:4">
+      <c r="B22">
         <v>2005</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>10</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4">
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" t="s">
         <v>11</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
-      <c r="B25">
+    <row r="26" spans="2:4">
+      <c r="B26">
         <v>2006</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>10</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4">
-      <c r="C26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
       </c>
     </row>
     <row r="27" spans="3:4">
       <c r="C27" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D27">
-        <v>21013</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="3:4">
       <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28">
+        <v>21013</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="C29" t="s">
         <v>9</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
-      <c r="B30">
+    <row r="31" spans="2:4">
+      <c r="B31">
         <v>2007</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>10</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="3:4">
-      <c r="C31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31">
+    <row r="32" spans="3:4">
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32">
         <v>21014</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34">
+        <v>1101</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38">
+        <v>1102</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4">
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4">
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1289,7 +1354,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1306,7 +1371,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Configs/Datas/EffectData.xlsx
+++ b/Configs/Datas/EffectData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13770" windowHeight="9080"/>
+    <workbookView windowWidth="24045" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
   <si>
     <t>##var</t>
   </si>
@@ -1019,22 +1019,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="3" max="3" width="23.4454545454545" customWidth="1"/>
+    <col min="3" max="3" width="23.4416666666667" customWidth="1"/>
     <col min="4" max="5" width="20" customWidth="1"/>
-    <col min="6" max="7" width="10.6636363636364" customWidth="1"/>
+    <col min="6" max="7" width="10.6666666666667" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
-    <col min="9" max="9" width="22.7727272727273" customWidth="1"/>
-    <col min="10" max="10" width="21.1090909090909" customWidth="1"/>
-    <col min="11" max="11" width="11.3363636363636" customWidth="1"/>
-    <col min="12" max="12" width="13.4454545454545" customWidth="1"/>
+    <col min="9" max="9" width="22.775" customWidth="1"/>
+    <col min="10" max="10" width="21.1083333333333" customWidth="1"/>
+    <col min="11" max="11" width="11.3333333333333" customWidth="1"/>
+    <col min="12" max="12" width="13.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1335,6 +1335,33 @@
         <v>11</v>
       </c>
       <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42">
+        <v>1103</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4">
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4">
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44">
         <v>0</v>
       </c>
     </row>
@@ -1354,7 +1381,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1371,7 +1398,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
